--- a/Final UserStory.xlsx
+++ b/Final UserStory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuddyReferal11111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CT0t1868\Desktop\CASESTUDY DOCCUMENTATION\DOCCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>User Story Template</t>
   </si>
@@ -62,18 +62,12 @@
     <t>US3</t>
   </si>
   <si>
-    <t>US4</t>
-  </si>
-  <si>
     <t>Logout</t>
   </si>
   <si>
     <t>Invalidate session and logout</t>
   </si>
   <si>
-    <t>US5</t>
-  </si>
-  <si>
     <t>US6</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>Refer Buddy</t>
   </si>
   <si>
-    <t>Reward Details</t>
-  </si>
-  <si>
     <t>Logout from the current Employee Id</t>
   </si>
   <si>
@@ -167,19 +158,7 @@
     <t>To view the Generated Report</t>
   </si>
   <si>
-    <t>To diplay the Reward amount of the Employee</t>
-  </si>
-  <si>
-    <t>To display the status of the Buddy</t>
-  </si>
-  <si>
-    <t>Ankita Surendra Zingade(486441),Ghazala Fathima(486740)</t>
-  </si>
-  <si>
-    <t>31/1/2017</t>
-  </si>
-  <si>
-    <t>Check Referral Status</t>
+    <t>PRANALI RAUT,PUJA CHANEKAR</t>
   </si>
 </sst>
 </file>
@@ -621,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -659,28 +638,24 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
-        <v>42949</v>
-      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -706,10 +681,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -717,13 +692,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -731,13 +706,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,55 +720,55 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -801,13 +776,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -815,13 +790,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,13 +804,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -843,55 +818,27 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Final UserStory.xlsx
+++ b/Final UserStory.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CT0t1868\Desktop\CASESTUDY DOCCUMENTATION\DOCCUMENTATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ct0t1868\Desktop\Buddy Referral case study\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>User Story Template</t>
   </si>
@@ -62,12 +62,6 @@
     <t>US3</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Invalidate session and logout</t>
-  </si>
-  <si>
     <t>US6</t>
   </si>
   <si>
@@ -80,15 +74,6 @@
     <t>US9</t>
   </si>
   <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
     <t>Tasks to be performed</t>
   </si>
   <si>
@@ -113,9 +98,6 @@
     <t>Refer Buddy</t>
   </si>
   <si>
-    <t>Logout from the current Employee Id</t>
-  </si>
-  <si>
     <t>SPOC</t>
   </si>
   <si>
@@ -149,16 +131,19 @@
     <t>To update the status of the Buddy</t>
   </si>
   <si>
-    <t>US13</t>
-  </si>
-  <si>
     <t>View Report</t>
   </si>
   <si>
     <t>To view the Generated Report</t>
   </si>
   <si>
-    <t>PRANALI RAUT,PUJA CHANEKAR</t>
+    <t>SHASHANK VIJAY GADGE,ADITYA KISHOR SAWALKAR</t>
+  </si>
+  <si>
+    <t>US5</t>
+  </si>
+  <si>
+    <t>US4</t>
   </si>
 </sst>
 </file>
@@ -272,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -281,9 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -616,12 +598,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -638,13 +620,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -668,10 +650,10 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -681,10 +663,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,13 +674,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -706,13 +688,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -720,125 +702,97 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
